--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -776,7 +776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1975,7 +1975,7 @@
         <v>8000</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="8">
@@ -2040,7 +2040,7 @@
         <v>3000</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="8">
@@ -2053,7 +2053,7 @@
         <v>3000</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="8">
@@ -2066,7 +2066,7 @@
         <v>2000</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="8">
@@ -2079,7 +2079,7 @@
         <v>2500</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="8">
@@ -2118,7 +2118,7 @@
         <v>8000</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="8">
@@ -2131,7 +2131,7 @@
         <v>9000</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="8">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -2053,7 +2053,7 @@
         <v>3000</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="8">
@@ -2118,7 +2118,7 @@
         <v>8000</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="8">
@@ -2131,7 +2131,7 @@
         <v>9000</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="8">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -1975,7 +1975,7 @@
         <v>8000</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="8">
@@ -1988,7 +1988,7 @@
         <v>8000</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="8">
@@ -2040,7 +2040,7 @@
         <v>3000</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="8">
@@ -2053,7 +2053,7 @@
         <v>3000</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="8">
@@ -2079,7 +2079,7 @@
         <v>2500</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="8">
@@ -2118,7 +2118,7 @@
         <v>8000</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="8">
@@ -2131,7 +2131,7 @@
         <v>9000</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="8">
